--- a/アンケート/回答１.xlsx
+++ b/アンケート/回答１.xlsx
@@ -1,31 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magin\Desktop\Tasks\200410_アンケート収集ツール作成\アンケート\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6D4A38-325F-4D2C-A42B-5836A13F4FDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8782B5-5607-4179-863B-6881CA24E8B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>q1</t>
     <phoneticPr fontId="1"/>
@@ -69,6 +77,14 @@
     <rPh sb="0" eb="1">
       <t>フユ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -394,15 +410,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A54:B59"/>
+  <dimension ref="A54:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -410,7 +426,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>1</v>
       </c>
@@ -418,7 +434,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>2</v>
       </c>
@@ -426,7 +442,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>3</v>
       </c>
@@ -434,15 +450,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>4</v>
       </c>
-      <c r="B58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="B58" t="str">
+        <f>C58&amp;D58</f>
+        <v>ab</v>
+      </c>
+      <c r="C58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>5</v>
       </c>
